--- a/result_301.xlsx
+++ b/result_301.xlsx
@@ -14,7 +14,12 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="未命名" localSheetId="2">工作表3!$A$1:$K$53</definedName>
+    <definedName name="未命名_1" localSheetId="2">工作表3!$L$2:$T$68</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,8 +29,29 @@
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="未命名" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10008" sourceFile="/Users/xox/Desktop/未命名.rtf" space="1" consecutive="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="未命名1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" codePage="10008" sourceFile="/Users/xox/Desktop/未命名.rtf" space="1" consecutive="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="72">
   <si>
     <t>matrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +127,166 @@
   <si>
     <t>LCSS_120_30</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mix_229.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.673022\</t>
+  </si>
+  <si>
+    <t>44.127543\</t>
+  </si>
+  <si>
+    <t>51.395470\</t>
+  </si>
+  <si>
+    <t>50.508950\</t>
+  </si>
+  <si>
+    <t>48.737630\</t>
+  </si>
+  <si>
+    <t>53.854308\</t>
+  </si>
+  <si>
+    <t>55.113952\</t>
+  </si>
+  <si>
+    <t>40.702613\</t>
+  </si>
+  <si>
+    <t>59.560276\</t>
+  </si>
+  <si>
+    <t>46.236408\</t>
+  </si>
+  <si>
+    <t>42.126562\</t>
+  </si>
+  <si>
+    <t>47.496328\</t>
+  </si>
+  <si>
+    <t>54.462322\</t>
+  </si>
+  <si>
+    <t>50.954107\</t>
+  </si>
+  <si>
+    <t>52.296946\</t>
+  </si>
+  <si>
+    <t>49.398705\</t>
+  </si>
+  <si>
+    <t>42.211292\</t>
+  </si>
+  <si>
+    <t>49.241137\</t>
+  </si>
+  <si>
+    <t>128.679430\</t>
+  </si>
+  <si>
+    <t>147.254010\</t>
+  </si>
+  <si>
+    <t>109.212672\</t>
+  </si>
+  <si>
+    <t>-32.735226\</t>
+  </si>
+  <si>
+    <t>78.896167\</t>
+  </si>
+  <si>
+    <t>78.896167}</t>
+  </si>
+  <si>
+    <t>46.766270\</t>
+  </si>
+  <si>
+    <t>48.616114\</t>
+  </si>
+  <si>
+    <t>47.433926\</t>
+  </si>
+  <si>
+    <t>44.450856\</t>
+  </si>
+  <si>
+    <t>44.480717\</t>
+  </si>
+  <si>
+    <t>46.660282\</t>
+  </si>
+  <si>
+    <t>52.883139\</t>
+  </si>
+  <si>
+    <t>49.969741\</t>
+  </si>
+  <si>
+    <t>46.363928\</t>
+  </si>
+  <si>
+    <t>47.956311\</t>
+  </si>
+  <si>
+    <t>40.785821\</t>
+  </si>
+  <si>
+    <t>46.610301\</t>
+  </si>
+  <si>
+    <t>47.156563\</t>
+  </si>
+  <si>
+    <t>47.675427\</t>
+  </si>
+  <si>
+    <t>46.460918\</t>
+  </si>
+  <si>
+    <t>45.571510\</t>
+  </si>
+  <si>
+    <t>47.042493\</t>
+  </si>
+  <si>
+    <t>47.095253\</t>
+  </si>
+  <si>
+    <t>45.364936\</t>
+  </si>
+  <si>
+    <t>45.549144\</t>
+  </si>
+  <si>
+    <t>44.668814\</t>
+  </si>
+  <si>
+    <t>49.274765\</t>
+  </si>
+  <si>
+    <t>47.619549\</t>
+  </si>
+  <si>
+    <t>54.409221\</t>
+  </si>
+  <si>
+    <t>51.972769\</t>
+  </si>
+  <si>
+    <t>-22.734370\</t>
+  </si>
+  <si>
+    <t>48.632951\</t>
+  </si>
+  <si>
+    <t>-22.734370}</t>
   </si>
 </sst>
 </file>
@@ -140,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +336,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,7 +371,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -194,6 +398,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="未命名_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="未命名" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -462,7 +674,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.15"/>
@@ -600,40 +812,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="21.6640625" defaultRowHeight="24" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="21.6640625" style="4"/>
+    <col min="1" max="1" width="21.6640625" style="4"/>
+    <col min="2" max="2" width="10.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="21.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="5">
+        <v>12639</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>100</v>
       </c>
@@ -641,13 +880,39 @@
         <v>72</v>
       </c>
       <c r="C3" s="5">
+        <f>B3/A3</f>
+        <v>0.72</v>
+      </c>
+      <c r="D3" s="5">
         <v>80</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="9">
+        <f>D3/A3</f>
+        <v>0.8</v>
+      </c>
+      <c r="F3" s="5">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" s="5">
+        <f>F3/A3</f>
+        <v>0.42</v>
+      </c>
+      <c r="H3" s="5">
+        <v>61</v>
+      </c>
+      <c r="I3" s="5">
+        <f>H3/A3</f>
+        <v>0.61</v>
+      </c>
+      <c r="J3" s="5">
+        <v>69</v>
+      </c>
+      <c r="K3" s="5">
+        <f>J3/A3</f>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>150</v>
       </c>
@@ -655,13 +920,39 @@
         <v>111</v>
       </c>
       <c r="C4" s="5">
+        <f>B4/A4</f>
+        <v>0.74</v>
+      </c>
+      <c r="D4" s="5">
         <v>122</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="9">
+        <f>D4/A4</f>
+        <v>0.81333333333333335</v>
+      </c>
+      <c r="F4" s="5">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" s="5">
+        <f>F4/A4</f>
+        <v>0.50666666666666671</v>
+      </c>
+      <c r="H4" s="5">
+        <v>105</v>
+      </c>
+      <c r="I4" s="5">
+        <f>H4/A4</f>
+        <v>0.7</v>
+      </c>
+      <c r="J4" s="5">
+        <v>114</v>
+      </c>
+      <c r="K4" s="5">
+        <f>J4/A4</f>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>200</v>
       </c>
@@ -669,13 +960,39 @@
         <v>156</v>
       </c>
       <c r="C5" s="5">
+        <f t="shared" ref="C5:C19" si="0">B5/A5</f>
+        <v>0.78</v>
+      </c>
+      <c r="D5" s="5">
         <v>176</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="9">
+        <f t="shared" ref="E5:E19" si="1">D5/A5</f>
+        <v>0.88</v>
+      </c>
+      <c r="F5" s="5">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G19" si="2">F5/A5</f>
+        <v>0.51</v>
+      </c>
+      <c r="H5" s="5">
+        <v>153</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" ref="I5:I19" si="3">H5/A5</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="J5" s="5">
+        <v>154</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" ref="K5:K19" si="4">J5/A5</f>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>250</v>
       </c>
@@ -683,13 +1000,39 @@
         <v>197</v>
       </c>
       <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="D6" s="5">
         <v>212</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="F6" s="5">
         <v>139</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="H6" s="5">
+        <v>192</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="3"/>
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="J6" s="5">
+        <v>195</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>300</v>
       </c>
@@ -697,13 +1040,39 @@
         <v>240</v>
       </c>
       <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="D7" s="5">
         <v>250</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="9">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F7" s="5">
         <v>176</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.58666666666666667</v>
+      </c>
+      <c r="H7" s="5">
+        <v>236</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="3"/>
+        <v>0.78666666666666663</v>
+      </c>
+      <c r="J7" s="5">
+        <v>242</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.80666666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>350</v>
       </c>
@@ -711,13 +1080,39 @@
         <v>289</v>
       </c>
       <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.82571428571428573</v>
+      </c>
+      <c r="D8" s="5">
         <v>296</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.84571428571428575</v>
+      </c>
+      <c r="F8" s="5">
         <v>219</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.62571428571428567</v>
+      </c>
+      <c r="H8" s="5">
+        <v>277</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="3"/>
+        <v>0.79142857142857148</v>
+      </c>
+      <c r="J8" s="5">
+        <v>285</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="4"/>
+        <v>0.81428571428571428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>400</v>
       </c>
@@ -725,13 +1120,39 @@
         <v>321</v>
       </c>
       <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="D9" s="5">
         <v>345</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="F9" s="5">
         <v>262</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9" s="5">
+        <f t="shared" si="2"/>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="H9" s="5">
+        <v>328</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="3"/>
+        <v>0.82</v>
+      </c>
+      <c r="J9" s="5">
+        <v>322</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="4"/>
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>450</v>
       </c>
@@ -739,13 +1160,39 @@
         <v>363</v>
       </c>
       <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.80666666666666664</v>
+      </c>
+      <c r="D10" s="5">
         <v>395</v>
       </c>
-      <c r="D10" s="5">
+      <c r="E10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.87777777777777777</v>
+      </c>
+      <c r="F10" s="5">
         <v>309</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10" s="5">
+        <f t="shared" si="2"/>
+        <v>0.68666666666666665</v>
+      </c>
+      <c r="H10" s="5">
+        <v>373</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="3"/>
+        <v>0.8288888888888889</v>
+      </c>
+      <c r="J10" s="5">
+        <v>361</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="4"/>
+        <v>0.80222222222222217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>500</v>
       </c>
@@ -753,13 +1200,39 @@
         <v>412</v>
       </c>
       <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D11" s="5">
         <v>442</v>
       </c>
-      <c r="D11" s="5">
+      <c r="E11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="F11" s="5">
         <v>348</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="H11" s="5">
+        <v>408</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="3"/>
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="J11" s="5">
+        <v>413</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="4"/>
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>550</v>
       </c>
@@ -767,13 +1240,39 @@
         <v>458</v>
       </c>
       <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.83272727272727276</v>
+      </c>
+      <c r="D12" s="5">
         <v>495</v>
       </c>
-      <c r="D12" s="5">
+      <c r="E12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="F12" s="5">
         <v>392</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.71272727272727276</v>
+      </c>
+      <c r="H12" s="5">
+        <v>465</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="3"/>
+        <v>0.84545454545454546</v>
+      </c>
+      <c r="J12" s="5">
+        <v>460</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="4"/>
+        <v>0.83636363636363631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>600</v>
       </c>
@@ -781,13 +1280,39 @@
         <v>515</v>
       </c>
       <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.85833333333333328</v>
+      </c>
+      <c r="D13" s="5">
         <v>540</v>
       </c>
-      <c r="D13" s="5">
+      <c r="E13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="F13" s="5">
         <v>452</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G13" s="5">
+        <f t="shared" si="2"/>
+        <v>0.7533333333333333</v>
+      </c>
+      <c r="H13" s="5">
+        <v>512</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="3"/>
+        <v>0.85333333333333339</v>
+      </c>
+      <c r="J13" s="5">
+        <v>513</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="4"/>
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>650</v>
       </c>
@@ -795,13 +1320,39 @@
         <v>559</v>
       </c>
       <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.86</v>
+      </c>
+      <c r="D14" s="5">
         <v>592</v>
       </c>
-      <c r="D14" s="5">
+      <c r="E14" s="9">
+        <f t="shared" si="1"/>
+        <v>0.91076923076923078</v>
+      </c>
+      <c r="F14" s="5">
         <v>497</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G14" s="5">
+        <f t="shared" si="2"/>
+        <v>0.76461538461538459</v>
+      </c>
+      <c r="H14" s="5">
+        <v>563</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="3"/>
+        <v>0.86615384615384616</v>
+      </c>
+      <c r="J14" s="5">
+        <v>554</v>
+      </c>
+      <c r="K14" s="5">
+        <f t="shared" si="4"/>
+        <v>0.85230769230769232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>700</v>
       </c>
@@ -809,13 +1360,39 @@
         <v>610</v>
       </c>
       <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.87142857142857144</v>
+      </c>
+      <c r="D15" s="5">
         <v>633</v>
       </c>
-      <c r="D15" s="5">
+      <c r="E15" s="9">
+        <f t="shared" si="1"/>
+        <v>0.90428571428571425</v>
+      </c>
+      <c r="F15" s="5">
         <v>542</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G15" s="5">
+        <f t="shared" si="2"/>
+        <v>0.77428571428571424</v>
+      </c>
+      <c r="H15" s="5">
+        <v>613</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="3"/>
+        <v>0.87571428571428567</v>
+      </c>
+      <c r="J15" s="5">
+        <v>606</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="4"/>
+        <v>0.86571428571428577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>750</v>
       </c>
@@ -823,13 +1400,39 @@
         <v>659</v>
       </c>
       <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.87866666666666671</v>
+      </c>
+      <c r="D16" s="5">
         <v>679</v>
       </c>
-      <c r="D16" s="5">
+      <c r="E16" s="9">
+        <f t="shared" si="1"/>
+        <v>0.90533333333333332</v>
+      </c>
+      <c r="F16" s="5">
         <v>584</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G16" s="5">
+        <f t="shared" si="2"/>
+        <v>0.77866666666666662</v>
+      </c>
+      <c r="H16" s="5">
+        <v>651</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="3"/>
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="J16" s="5">
+        <v>656</v>
+      </c>
+      <c r="K16" s="5">
+        <f t="shared" si="4"/>
+        <v>0.8746666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>800</v>
       </c>
@@ -837,61 +1440,4675 @@
         <v>717</v>
       </c>
       <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.89624999999999999</v>
+      </c>
+      <c r="D17" s="5">
         <v>722</v>
       </c>
-      <c r="D17" s="5">
+      <c r="E17" s="9">
+        <f t="shared" si="1"/>
+        <v>0.90249999999999997</v>
+      </c>
+      <c r="F17" s="5">
         <v>626</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G17" s="5">
+        <f t="shared" si="2"/>
+        <v>0.78249999999999997</v>
+      </c>
+      <c r="H17" s="5">
+        <v>693</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="3"/>
+        <v>0.86624999999999996</v>
+      </c>
+      <c r="J17" s="5">
+        <v>714</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="4"/>
+        <v>0.89249999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>850</v>
       </c>
       <c r="B18" s="5">
         <v>768</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.90352941176470591</v>
+      </c>
+      <c r="D18" s="5">
         <v>755</v>
       </c>
-      <c r="D18" s="5">
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>0.88823529411764701</v>
+      </c>
+      <c r="F18" s="5">
         <v>673</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G18" s="5">
+        <f t="shared" si="2"/>
+        <v>0.79176470588235293</v>
+      </c>
+      <c r="H18" s="5">
+        <v>742</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="3"/>
+        <v>0.87294117647058822</v>
+      </c>
+      <c r="J18" s="5">
+        <v>760</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="4"/>
+        <v>0.89411764705882357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>900</v>
       </c>
       <c r="B19" s="5">
         <v>807</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.89666666666666661</v>
+      </c>
+      <c r="D19" s="5">
         <v>791</v>
       </c>
-      <c r="D19" s="5">
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>0.87888888888888894</v>
+      </c>
+      <c r="F19" s="5">
         <v>721</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>950</v>
-      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="2"/>
+        <v>0.80111111111111111</v>
+      </c>
+      <c r="H19" s="5">
+        <v>781</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="3"/>
+        <v>0.86777777777777776</v>
+      </c>
+      <c r="J19" s="5">
+        <v>801</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>1000</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
       <c r="D21" s="5"/>
+      <c r="E21" s="5">
+        <v>22019</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>100</v>
+      </c>
+      <c r="B23" s="5">
+        <v>50</v>
+      </c>
+      <c r="C23" s="5">
+        <f>B23/A23</f>
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="5">
+        <v>60</v>
+      </c>
+      <c r="E23" s="10">
+        <f>D23/A23</f>
+        <v>0.6</v>
+      </c>
+      <c r="F23" s="5">
+        <v>41</v>
+      </c>
+      <c r="G23" s="5">
+        <f>F23/A23</f>
+        <v>0.41</v>
+      </c>
+      <c r="H23" s="5">
+        <v>52</v>
+      </c>
+      <c r="I23" s="5">
+        <f>H23/A23</f>
+        <v>0.52</v>
+      </c>
+      <c r="J23" s="5">
+        <v>47</v>
+      </c>
+      <c r="K23" s="5">
+        <f>J23/A23</f>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>150</v>
+      </c>
+      <c r="B24" s="5">
+        <v>90</v>
+      </c>
+      <c r="C24" s="5">
+        <f>B24/A24</f>
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="5">
+        <v>95</v>
+      </c>
+      <c r="E24" s="10">
+        <f>D24/A24</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="F24" s="5">
+        <v>70</v>
+      </c>
+      <c r="G24" s="5">
+        <f>F24/A24</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="H24" s="5">
+        <v>88</v>
+      </c>
+      <c r="I24" s="5">
+        <f>H24/A24</f>
+        <v>0.58666666666666667</v>
+      </c>
+      <c r="J24" s="5">
+        <v>86</v>
+      </c>
+      <c r="K24" s="5">
+        <f>J24/A24</f>
+        <v>0.57333333333333336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>200</v>
+      </c>
+      <c r="B25" s="5">
+        <v>142</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" ref="C25:C39" si="5">B25/A25</f>
+        <v>0.71</v>
+      </c>
+      <c r="D25" s="5">
+        <v>139</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" ref="E25:E39" si="6">D25/A25</f>
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="F25" s="5">
+        <v>112</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" ref="G25:G39" si="7">F25/A25</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H25" s="5">
+        <v>130</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" ref="I25:I39" si="8">H25/A25</f>
+        <v>0.65</v>
+      </c>
+      <c r="J25" s="5">
+        <v>130</v>
+      </c>
+      <c r="K25" s="5">
+        <f t="shared" ref="K25:K39" si="9">J25/A25</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>250</v>
+      </c>
+      <c r="B26" s="5">
+        <v>196</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="5"/>
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D26" s="5">
+        <v>189</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="6"/>
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="F26" s="5">
+        <v>157</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" si="7"/>
+        <v>0.628</v>
+      </c>
+      <c r="H26" s="5">
+        <v>181</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="8"/>
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="J26" s="5">
+        <v>182</v>
+      </c>
+      <c r="K26" s="5">
+        <f t="shared" si="9"/>
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>300</v>
+      </c>
+      <c r="B27" s="5">
+        <v>260</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="5"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="D27" s="5">
+        <v>243</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="6"/>
+        <v>0.81</v>
+      </c>
+      <c r="F27" s="5">
+        <v>201</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="7"/>
+        <v>0.67</v>
+      </c>
+      <c r="H27" s="5">
+        <v>234</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="8"/>
+        <v>0.78</v>
+      </c>
+      <c r="J27" s="5">
+        <v>241</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="9"/>
+        <v>0.80333333333333334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>350</v>
+      </c>
+      <c r="B28" s="5">
+        <v>321</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="5"/>
+        <v>0.91714285714285715</v>
+      </c>
+      <c r="D28" s="5">
+        <v>298</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="6"/>
+        <v>0.85142857142857142</v>
+      </c>
+      <c r="F28" s="5">
+        <v>251</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="7"/>
+        <v>0.71714285714285719</v>
+      </c>
+      <c r="H28" s="5">
+        <v>292</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="8"/>
+        <v>0.8342857142857143</v>
+      </c>
+      <c r="J28" s="5">
+        <v>318</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" si="9"/>
+        <v>0.90857142857142859</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>400</v>
+      </c>
+      <c r="B29" s="5">
+        <v>371</v>
+      </c>
+      <c r="C29" s="5">
+        <f t="shared" si="5"/>
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="D29" s="5">
+        <v>356</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="6"/>
+        <v>0.89</v>
+      </c>
+      <c r="F29" s="5">
+        <v>315</v>
+      </c>
+      <c r="G29" s="5">
+        <f t="shared" si="7"/>
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="H29" s="5">
+        <v>344</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="8"/>
+        <v>0.86</v>
+      </c>
+      <c r="J29" s="5">
+        <v>375</v>
+      </c>
+      <c r="K29" s="5">
+        <f t="shared" si="9"/>
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>450</v>
+      </c>
+      <c r="B30" s="5">
+        <v>416</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="5"/>
+        <v>0.9244444444444444</v>
+      </c>
+      <c r="D30" s="5">
+        <v>403</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="6"/>
+        <v>0.89555555555555555</v>
+      </c>
+      <c r="F30" s="5">
+        <v>375</v>
+      </c>
+      <c r="G30" s="5">
+        <f t="shared" si="7"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H30" s="5">
+        <v>415</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="8"/>
+        <v>0.92222222222222228</v>
+      </c>
+      <c r="J30" s="5">
+        <v>428</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="9"/>
+        <v>0.95111111111111113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>500</v>
+      </c>
+      <c r="B31" s="5">
+        <v>462</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="5"/>
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="D31" s="5">
+        <v>444</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="6"/>
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="F31" s="5">
+        <v>434</v>
+      </c>
+      <c r="G31" s="5">
+        <f t="shared" si="7"/>
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="H31" s="5">
+        <v>459</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="8"/>
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="J31" s="5">
+        <v>481</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="9"/>
+        <v>0.96199999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>550</v>
+      </c>
+      <c r="B32" s="5">
+        <v>503</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="5"/>
+        <v>0.91454545454545455</v>
+      </c>
+      <c r="D32" s="5">
+        <v>488</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="6"/>
+        <v>0.88727272727272732</v>
+      </c>
+      <c r="F32" s="5">
+        <v>493</v>
+      </c>
+      <c r="G32" s="5">
+        <f t="shared" si="7"/>
+        <v>0.89636363636363636</v>
+      </c>
+      <c r="H32" s="5">
+        <v>498</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="8"/>
+        <v>0.9054545454545454</v>
+      </c>
+      <c r="J32" s="5">
+        <v>524</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="9"/>
+        <v>0.95272727272727276</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>600</v>
+      </c>
+      <c r="B33" s="5">
+        <v>555</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="5"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D33" s="5">
+        <v>533</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" si="6"/>
+        <v>0.88833333333333331</v>
+      </c>
+      <c r="F33" s="5">
+        <v>552</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" si="7"/>
+        <v>0.92</v>
+      </c>
+      <c r="H33" s="5">
+        <v>546</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="8"/>
+        <v>0.91</v>
+      </c>
+      <c r="J33" s="5">
+        <v>565</v>
+      </c>
+      <c r="K33" s="5">
+        <f t="shared" si="9"/>
+        <v>0.94166666666666665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>650</v>
+      </c>
+      <c r="B34" s="5">
+        <v>607</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="5"/>
+        <v>0.93384615384615388</v>
+      </c>
+      <c r="D34" s="5">
+        <v>569</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="6"/>
+        <v>0.87538461538461543</v>
+      </c>
+      <c r="F34" s="5">
+        <v>603</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="7"/>
+        <v>0.9276923076923077</v>
+      </c>
+      <c r="H34" s="5">
+        <v>585</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="J34" s="5">
+        <v>617</v>
+      </c>
+      <c r="K34" s="5">
+        <f t="shared" si="9"/>
+        <v>0.94923076923076921</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>700</v>
+      </c>
+      <c r="B35" s="5">
+        <v>676</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="5"/>
+        <v>0.96571428571428575</v>
+      </c>
+      <c r="D35" s="5">
+        <v>618</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="6"/>
+        <v>0.8828571428571429</v>
+      </c>
+      <c r="F35" s="5">
+        <v>660</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="7"/>
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="H35" s="5">
+        <v>638</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="8"/>
+        <v>0.91142857142857148</v>
+      </c>
+      <c r="J35" s="5">
+        <v>676</v>
+      </c>
+      <c r="K35" s="5">
+        <f t="shared" si="9"/>
+        <v>0.96571428571428575</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>750</v>
+      </c>
+      <c r="B36" s="5">
+        <v>715</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="5"/>
+        <v>0.95333333333333337</v>
+      </c>
+      <c r="D36" s="5">
+        <v>669</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="6"/>
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="F36" s="5">
+        <v>703</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="7"/>
+        <v>0.93733333333333335</v>
+      </c>
+      <c r="H36" s="5">
+        <v>683</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="8"/>
+        <v>0.91066666666666662</v>
+      </c>
+      <c r="J36" s="5">
+        <v>721</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" si="9"/>
+        <v>0.96133333333333337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>800</v>
+      </c>
+      <c r="B37" s="5">
+        <v>749</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" si="5"/>
+        <v>0.93625000000000003</v>
+      </c>
+      <c r="D37" s="5">
+        <v>721</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" si="6"/>
+        <v>0.90125</v>
+      </c>
+      <c r="F37" s="5">
+        <v>742</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="7"/>
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="H37" s="5">
+        <v>731</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="8"/>
+        <v>0.91374999999999995</v>
+      </c>
+      <c r="J37" s="5">
+        <v>758</v>
+      </c>
+      <c r="K37" s="5">
+        <f t="shared" si="9"/>
+        <v>0.94750000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>850</v>
+      </c>
+      <c r="B38" s="5">
+        <v>797</v>
+      </c>
+      <c r="C38" s="9">
+        <f t="shared" si="5"/>
+        <v>0.93764705882352939</v>
+      </c>
+      <c r="D38" s="5">
+        <v>764</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="6"/>
+        <v>0.89882352941176469</v>
+      </c>
+      <c r="F38" s="5">
+        <v>783</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="7"/>
+        <v>0.92117647058823526</v>
+      </c>
+      <c r="H38" s="5">
+        <v>779</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="8"/>
+        <v>0.91647058823529415</v>
+      </c>
+      <c r="J38" s="5">
+        <v>804</v>
+      </c>
+      <c r="K38" s="5">
+        <f t="shared" si="9"/>
+        <v>0.94588235294117651</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>900</v>
+      </c>
+      <c r="B39" s="5">
+        <v>848</v>
+      </c>
+      <c r="C39" s="9">
+        <f t="shared" si="5"/>
+        <v>0.94222222222222218</v>
+      </c>
+      <c r="D39" s="5">
+        <v>816</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="6"/>
+        <v>0.90666666666666662</v>
+      </c>
+      <c r="F39" s="5">
+        <v>831</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="7"/>
+        <v>0.92333333333333334</v>
+      </c>
+      <c r="H39" s="5">
+        <v>828</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="8"/>
+        <v>0.92</v>
+      </c>
+      <c r="J39" s="5">
+        <v>859</v>
+      </c>
+      <c r="K39" s="5">
+        <f t="shared" si="9"/>
+        <v>0.95444444444444443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5">
+        <v>22026</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K42" s="6"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>100</v>
+      </c>
+      <c r="B43" s="5">
+        <v>76</v>
+      </c>
+      <c r="C43" s="5">
+        <f>B43/A43</f>
+        <v>0.76</v>
+      </c>
+      <c r="D43" s="5">
+        <v>64</v>
+      </c>
+      <c r="E43" s="10">
+        <f>D43/A43</f>
+        <v>0.64</v>
+      </c>
+      <c r="F43" s="5">
+        <v>42</v>
+      </c>
+      <c r="G43" s="5">
+        <f>F43/A43</f>
+        <v>0.42</v>
+      </c>
+      <c r="H43" s="5">
+        <v>58</v>
+      </c>
+      <c r="I43" s="5">
+        <f>H43/A43</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J43" s="5">
+        <v>74</v>
+      </c>
+      <c r="K43" s="5">
+        <f>J43/A43</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>150</v>
+      </c>
+      <c r="B44" s="5">
+        <v>118</v>
+      </c>
+      <c r="C44" s="5">
+        <f>B44/A44</f>
+        <v>0.78666666666666663</v>
+      </c>
+      <c r="D44" s="5">
+        <v>111</v>
+      </c>
+      <c r="E44" s="10">
+        <f>D44/A44</f>
+        <v>0.74</v>
+      </c>
+      <c r="F44" s="5">
+        <v>75</v>
+      </c>
+      <c r="G44" s="5">
+        <f>F44/A44</f>
+        <v>0.5</v>
+      </c>
+      <c r="H44" s="5">
+        <v>95</v>
+      </c>
+      <c r="I44" s="5">
+        <f>H44/A44</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="J44" s="5">
+        <v>119</v>
+      </c>
+      <c r="K44" s="5">
+        <f>J44/A44</f>
+        <v>0.79333333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>200</v>
+      </c>
+      <c r="B45" s="5">
+        <v>160</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" ref="C45:C59" si="10">B45/A45</f>
+        <v>0.8</v>
+      </c>
+      <c r="D45" s="5">
+        <v>157</v>
+      </c>
+      <c r="E45" s="10">
+        <f t="shared" ref="E45:E59" si="11">D45/A45</f>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F45" s="5">
+        <v>106</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" ref="G45:G59" si="12">F45/A45</f>
+        <v>0.53</v>
+      </c>
+      <c r="H45" s="5">
+        <v>134</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" ref="I45:I59" si="13">H45/A45</f>
+        <v>0.67</v>
+      </c>
+      <c r="J45" s="5">
+        <v>155</v>
+      </c>
+      <c r="K45" s="5">
+        <f t="shared" ref="K45:K59" si="14">J45/A45</f>
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>250</v>
+      </c>
+      <c r="B46" s="5">
+        <v>199</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="10"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="D46" s="5">
+        <v>197</v>
+      </c>
+      <c r="E46" s="10">
+        <f t="shared" si="11"/>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="F46" s="5">
+        <v>145</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="12"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H46" s="5">
+        <v>186</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="13"/>
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="J46" s="5">
+        <v>197</v>
+      </c>
+      <c r="K46" s="5">
+        <f t="shared" si="14"/>
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>300</v>
+      </c>
+      <c r="B47" s="5">
+        <v>238</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" si="10"/>
+        <v>0.79333333333333333</v>
+      </c>
+      <c r="D47" s="5">
+        <v>244</v>
+      </c>
+      <c r="E47" s="10">
+        <f t="shared" si="11"/>
+        <v>0.81333333333333335</v>
+      </c>
+      <c r="F47" s="5">
+        <v>192</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="12"/>
+        <v>0.64</v>
+      </c>
+      <c r="H47" s="5">
+        <v>220</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="13"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="J47" s="5">
+        <v>234</v>
+      </c>
+      <c r="K47" s="5">
+        <f t="shared" si="14"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>350</v>
+      </c>
+      <c r="B48" s="5">
+        <v>269</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="10"/>
+        <v>0.76857142857142857</v>
+      </c>
+      <c r="D48" s="5">
+        <v>286</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" si="11"/>
+        <v>0.81714285714285717</v>
+      </c>
+      <c r="F48" s="5">
+        <v>230</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="12"/>
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="H48" s="5">
+        <v>266</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="13"/>
+        <v>0.76</v>
+      </c>
+      <c r="J48" s="5">
+        <v>269</v>
+      </c>
+      <c r="K48" s="5">
+        <f t="shared" si="14"/>
+        <v>0.76857142857142857</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>400</v>
+      </c>
+      <c r="B49" s="5">
+        <v>310</v>
+      </c>
+      <c r="C49" s="5">
+        <f t="shared" si="10"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="D49" s="5">
+        <v>330</v>
+      </c>
+      <c r="E49" s="10">
+        <f t="shared" si="11"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="F49" s="5">
+        <v>260</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="12"/>
+        <v>0.65</v>
+      </c>
+      <c r="H49" s="5">
+        <v>303</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="13"/>
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="J49" s="5">
+        <v>309</v>
+      </c>
+      <c r="K49" s="5">
+        <f t="shared" si="14"/>
+        <v>0.77249999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>450</v>
+      </c>
+      <c r="B50" s="5">
+        <v>365</v>
+      </c>
+      <c r="C50" s="5">
+        <f t="shared" si="10"/>
+        <v>0.81111111111111112</v>
+      </c>
+      <c r="D50" s="5">
+        <v>375</v>
+      </c>
+      <c r="E50" s="10">
+        <f t="shared" si="11"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F50" s="5">
+        <v>304</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="12"/>
+        <v>0.67555555555555558</v>
+      </c>
+      <c r="H50" s="5">
+        <v>348</v>
+      </c>
+      <c r="I50" s="5">
+        <f t="shared" si="13"/>
+        <v>0.77333333333333332</v>
+      </c>
+      <c r="J50" s="5">
+        <v>360</v>
+      </c>
+      <c r="K50" s="5">
+        <f t="shared" si="14"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>500</v>
+      </c>
+      <c r="B51" s="5">
+        <v>419</v>
+      </c>
+      <c r="C51" s="5">
+        <f t="shared" si="10"/>
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="D51" s="5">
+        <v>427</v>
+      </c>
+      <c r="E51" s="10">
+        <f t="shared" si="11"/>
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="F51" s="5">
+        <v>351</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="12"/>
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="H51" s="5">
+        <v>402</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" si="13"/>
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="J51" s="5">
+        <v>409</v>
+      </c>
+      <c r="K51" s="5">
+        <f t="shared" si="14"/>
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>550</v>
+      </c>
+      <c r="B52" s="5">
+        <v>467</v>
+      </c>
+      <c r="C52" s="5">
+        <f t="shared" si="10"/>
+        <v>0.84909090909090912</v>
+      </c>
+      <c r="D52" s="5">
+        <v>468</v>
+      </c>
+      <c r="E52" s="10">
+        <f t="shared" si="11"/>
+        <v>0.85090909090909095</v>
+      </c>
+      <c r="F52" s="5">
+        <v>402</v>
+      </c>
+      <c r="G52" s="5">
+        <f t="shared" si="12"/>
+        <v>0.73090909090909095</v>
+      </c>
+      <c r="H52" s="5">
+        <v>451</v>
+      </c>
+      <c r="I52" s="5">
+        <f t="shared" si="13"/>
+        <v>0.82</v>
+      </c>
+      <c r="J52" s="5">
+        <v>455</v>
+      </c>
+      <c r="K52" s="5">
+        <f t="shared" si="14"/>
+        <v>0.82727272727272727</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>600</v>
+      </c>
+      <c r="B53" s="5">
+        <v>516</v>
+      </c>
+      <c r="C53" s="5">
+        <f t="shared" si="10"/>
+        <v>0.86</v>
+      </c>
+      <c r="D53" s="5">
+        <v>509</v>
+      </c>
+      <c r="E53" s="10">
+        <f t="shared" si="11"/>
+        <v>0.84833333333333338</v>
+      </c>
+      <c r="F53" s="5">
+        <v>446</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" si="12"/>
+        <v>0.74333333333333329</v>
+      </c>
+      <c r="H53" s="5">
+        <v>482</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" si="13"/>
+        <v>0.80333333333333334</v>
+      </c>
+      <c r="J53" s="5">
+        <v>507</v>
+      </c>
+      <c r="K53" s="5">
+        <f t="shared" si="14"/>
+        <v>0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>650</v>
+      </c>
+      <c r="B54" s="5">
+        <v>567</v>
+      </c>
+      <c r="C54" s="5">
+        <f t="shared" si="10"/>
+        <v>0.87230769230769234</v>
+      </c>
+      <c r="D54" s="5">
+        <v>548</v>
+      </c>
+      <c r="E54" s="10">
+        <f t="shared" si="11"/>
+        <v>0.84307692307692306</v>
+      </c>
+      <c r="F54" s="5">
+        <v>497</v>
+      </c>
+      <c r="G54" s="5">
+        <f t="shared" si="12"/>
+        <v>0.76461538461538459</v>
+      </c>
+      <c r="H54" s="5">
+        <v>523</v>
+      </c>
+      <c r="I54" s="5">
+        <f t="shared" si="13"/>
+        <v>0.80461538461538462</v>
+      </c>
+      <c r="J54" s="5">
+        <v>558</v>
+      </c>
+      <c r="K54" s="5">
+        <f t="shared" si="14"/>
+        <v>0.8584615384615385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>700</v>
+      </c>
+      <c r="B55" s="5">
+        <v>622</v>
+      </c>
+      <c r="C55" s="5">
+        <f t="shared" si="10"/>
+        <v>0.88857142857142857</v>
+      </c>
+      <c r="D55" s="5">
+        <v>587</v>
+      </c>
+      <c r="E55" s="10">
+        <f t="shared" si="11"/>
+        <v>0.83857142857142852</v>
+      </c>
+      <c r="F55" s="5">
+        <v>544</v>
+      </c>
+      <c r="G55" s="5">
+        <f t="shared" si="12"/>
+        <v>0.77714285714285714</v>
+      </c>
+      <c r="H55" s="5">
+        <v>564</v>
+      </c>
+      <c r="I55" s="5">
+        <f t="shared" si="13"/>
+        <v>0.80571428571428572</v>
+      </c>
+      <c r="J55" s="5">
+        <v>607</v>
+      </c>
+      <c r="K55" s="5">
+        <f t="shared" si="14"/>
+        <v>0.8671428571428571</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>750</v>
+      </c>
+      <c r="B56" s="5">
+        <v>678</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" si="10"/>
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="D56" s="5">
+        <v>636</v>
+      </c>
+      <c r="E56" s="10">
+        <f t="shared" si="11"/>
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="F56" s="5">
+        <v>593</v>
+      </c>
+      <c r="G56" s="5">
+        <f t="shared" si="12"/>
+        <v>0.79066666666666663</v>
+      </c>
+      <c r="H56" s="5">
+        <v>608</v>
+      </c>
+      <c r="I56" s="5">
+        <f t="shared" si="13"/>
+        <v>0.81066666666666665</v>
+      </c>
+      <c r="J56" s="5">
+        <v>664</v>
+      </c>
+      <c r="K56" s="5">
+        <f t="shared" si="14"/>
+        <v>0.88533333333333331</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>800</v>
+      </c>
+      <c r="B57" s="5">
+        <v>734</v>
+      </c>
+      <c r="C57" s="5">
+        <f t="shared" si="10"/>
+        <v>0.91749999999999998</v>
+      </c>
+      <c r="D57" s="5">
+        <v>675</v>
+      </c>
+      <c r="E57" s="10">
+        <f t="shared" si="11"/>
+        <v>0.84375</v>
+      </c>
+      <c r="F57" s="5">
+        <v>647</v>
+      </c>
+      <c r="G57" s="5">
+        <f t="shared" si="12"/>
+        <v>0.80874999999999997</v>
+      </c>
+      <c r="H57" s="5">
+        <v>643</v>
+      </c>
+      <c r="I57" s="5">
+        <f t="shared" si="13"/>
+        <v>0.80374999999999996</v>
+      </c>
+      <c r="J57" s="5">
+        <v>721</v>
+      </c>
+      <c r="K57" s="5">
+        <f t="shared" si="14"/>
+        <v>0.90125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>850</v>
+      </c>
+      <c r="B58" s="5">
+        <v>791</v>
+      </c>
+      <c r="C58" s="9">
+        <f t="shared" si="10"/>
+        <v>0.93058823529411761</v>
+      </c>
+      <c r="D58" s="5">
+        <v>720</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="11"/>
+        <v>0.84705882352941175</v>
+      </c>
+      <c r="F58" s="5">
+        <v>702</v>
+      </c>
+      <c r="G58" s="5">
+        <f t="shared" si="12"/>
+        <v>0.82588235294117651</v>
+      </c>
+      <c r="H58" s="5">
+        <v>691</v>
+      </c>
+      <c r="I58" s="5">
+        <f t="shared" si="13"/>
+        <v>0.81294117647058828</v>
+      </c>
+      <c r="J58" s="5">
+        <v>780</v>
+      </c>
+      <c r="K58" s="5">
+        <f t="shared" si="14"/>
+        <v>0.91764705882352937</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>900</v>
+      </c>
+      <c r="B59" s="5">
+        <v>846</v>
+      </c>
+      <c r="C59" s="9">
+        <f t="shared" si="10"/>
+        <v>0.94</v>
+      </c>
+      <c r="D59" s="5">
+        <v>758</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="11"/>
+        <v>0.84222222222222221</v>
+      </c>
+      <c r="F59" s="5">
+        <v>753</v>
+      </c>
+      <c r="G59" s="5">
+        <f t="shared" si="12"/>
+        <v>0.83666666666666667</v>
+      </c>
+      <c r="H59" s="5">
+        <v>736</v>
+      </c>
+      <c r="I59" s="5">
+        <f t="shared" si="13"/>
+        <v>0.81777777777777783</v>
+      </c>
+      <c r="J59" s="5">
+        <v>836</v>
+      </c>
+      <c r="K59" s="5">
+        <f t="shared" si="14"/>
+        <v>0.92888888888888888</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5">
+        <v>22176</v>
+      </c>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K62" s="6"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>100</v>
+      </c>
+      <c r="B63" s="5">
+        <v>59</v>
+      </c>
+      <c r="C63" s="5">
+        <f>B63/A63</f>
+        <v>0.59</v>
+      </c>
+      <c r="D63" s="5">
+        <v>79</v>
+      </c>
+      <c r="E63" s="10">
+        <f>D63/A63</f>
+        <v>0.79</v>
+      </c>
+      <c r="F63" s="5">
+        <v>45</v>
+      </c>
+      <c r="G63" s="5">
+        <f>F63/A63</f>
+        <v>0.45</v>
+      </c>
+      <c r="H63" s="5">
+        <v>58</v>
+      </c>
+      <c r="I63" s="5">
+        <f>H63/A63</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J63" s="5">
+        <v>74</v>
+      </c>
+      <c r="K63" s="5">
+        <f>J63/A63</f>
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>150</v>
+      </c>
+      <c r="B64" s="5">
+        <v>97</v>
+      </c>
+      <c r="C64" s="5">
+        <f>B64/A64</f>
+        <v>0.64666666666666661</v>
+      </c>
+      <c r="D64" s="5">
+        <v>124</v>
+      </c>
+      <c r="E64" s="10">
+        <f>D64/A64</f>
+        <v>0.82666666666666666</v>
+      </c>
+      <c r="F64" s="5">
+        <v>75</v>
+      </c>
+      <c r="G64" s="5">
+        <f>F64/A64</f>
+        <v>0.5</v>
+      </c>
+      <c r="H64" s="5">
+        <v>95</v>
+      </c>
+      <c r="I64" s="5">
+        <f>H64/A64</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="J64" s="5">
+        <v>119</v>
+      </c>
+      <c r="K64" s="5">
+        <f>J64/A64</f>
+        <v>0.79333333333333333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>200</v>
+      </c>
+      <c r="B65" s="5">
+        <v>130</v>
+      </c>
+      <c r="C65" s="5">
+        <f t="shared" ref="C65:C79" si="15">B65/A65</f>
+        <v>0.65</v>
+      </c>
+      <c r="D65" s="5">
+        <v>168</v>
+      </c>
+      <c r="E65" s="10">
+        <f t="shared" ref="E65:E79" si="16">D65/A65</f>
+        <v>0.84</v>
+      </c>
+      <c r="F65" s="5">
+        <v>107</v>
+      </c>
+      <c r="G65" s="5">
+        <f t="shared" ref="G65:G79" si="17">F65/A65</f>
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="H65" s="5">
+        <v>134</v>
+      </c>
+      <c r="I65" s="5">
+        <f t="shared" ref="I65:I79" si="18">H65/A65</f>
+        <v>0.67</v>
+      </c>
+      <c r="J65" s="5">
+        <v>155</v>
+      </c>
+      <c r="K65" s="5">
+        <f t="shared" ref="K65:K79" si="19">J65/A65</f>
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>250</v>
+      </c>
+      <c r="B66" s="5">
+        <v>180</v>
+      </c>
+      <c r="C66" s="5">
+        <f t="shared" si="15"/>
+        <v>0.72</v>
+      </c>
+      <c r="D66" s="5">
+        <v>207</v>
+      </c>
+      <c r="E66" s="10">
+        <f t="shared" si="16"/>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="F66" s="5">
+        <v>149</v>
+      </c>
+      <c r="G66" s="5">
+        <f t="shared" si="17"/>
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="H66" s="5">
+        <v>186</v>
+      </c>
+      <c r="I66" s="5">
+        <f t="shared" si="18"/>
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="J66" s="5">
+        <v>197</v>
+      </c>
+      <c r="K66" s="5">
+        <f t="shared" si="19"/>
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>300</v>
+      </c>
+      <c r="B67" s="5">
+        <v>219</v>
+      </c>
+      <c r="C67" s="5">
+        <f t="shared" si="15"/>
+        <v>0.73</v>
+      </c>
+      <c r="D67" s="5">
+        <v>244</v>
+      </c>
+      <c r="E67" s="10">
+        <f t="shared" si="16"/>
+        <v>0.81333333333333335</v>
+      </c>
+      <c r="F67" s="5">
+        <v>190</v>
+      </c>
+      <c r="G67" s="5">
+        <f t="shared" si="17"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="H67" s="5">
+        <v>220</v>
+      </c>
+      <c r="I67" s="5">
+        <f t="shared" si="18"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="J67" s="5">
+        <v>234</v>
+      </c>
+      <c r="K67" s="5">
+        <f t="shared" si="19"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>350</v>
+      </c>
+      <c r="B68" s="5">
+        <v>268</v>
+      </c>
+      <c r="C68" s="5">
+        <f t="shared" si="15"/>
+        <v>0.76571428571428568</v>
+      </c>
+      <c r="D68" s="5">
+        <v>283</v>
+      </c>
+      <c r="E68" s="10">
+        <f t="shared" si="16"/>
+        <v>0.80857142857142861</v>
+      </c>
+      <c r="F68" s="5">
+        <v>227</v>
+      </c>
+      <c r="G68" s="5">
+        <f t="shared" si="17"/>
+        <v>0.64857142857142858</v>
+      </c>
+      <c r="H68" s="5">
+        <v>266</v>
+      </c>
+      <c r="I68" s="5">
+        <f t="shared" si="18"/>
+        <v>0.76</v>
+      </c>
+      <c r="J68" s="5">
+        <v>269</v>
+      </c>
+      <c r="K68" s="5">
+        <f t="shared" si="19"/>
+        <v>0.76857142857142857</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>400</v>
+      </c>
+      <c r="B69" s="5">
+        <v>312</v>
+      </c>
+      <c r="C69" s="5">
+        <f t="shared" si="15"/>
+        <v>0.78</v>
+      </c>
+      <c r="D69" s="5">
+        <v>329</v>
+      </c>
+      <c r="E69" s="10">
+        <f t="shared" si="16"/>
+        <v>0.82250000000000001</v>
+      </c>
+      <c r="F69" s="5">
+        <v>283</v>
+      </c>
+      <c r="G69" s="5">
+        <f t="shared" si="17"/>
+        <v>0.70750000000000002</v>
+      </c>
+      <c r="H69" s="5">
+        <v>303</v>
+      </c>
+      <c r="I69" s="5">
+        <f t="shared" si="18"/>
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="J69" s="5">
+        <v>309</v>
+      </c>
+      <c r="K69" s="5">
+        <f t="shared" si="19"/>
+        <v>0.77249999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>450</v>
+      </c>
+      <c r="B70" s="5">
+        <v>369</v>
+      </c>
+      <c r="C70" s="5">
+        <f t="shared" si="15"/>
+        <v>0.82</v>
+      </c>
+      <c r="D70" s="5">
+        <v>372</v>
+      </c>
+      <c r="E70" s="10">
+        <f t="shared" si="16"/>
+        <v>0.82666666666666666</v>
+      </c>
+      <c r="F70" s="5">
+        <v>337</v>
+      </c>
+      <c r="G70" s="5">
+        <f t="shared" si="17"/>
+        <v>0.74888888888888894</v>
+      </c>
+      <c r="H70" s="5">
+        <v>348</v>
+      </c>
+      <c r="I70" s="5">
+        <f t="shared" si="18"/>
+        <v>0.77333333333333332</v>
+      </c>
+      <c r="J70" s="5">
+        <v>360</v>
+      </c>
+      <c r="K70" s="5">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>500</v>
+      </c>
+      <c r="B71" s="5">
+        <v>427</v>
+      </c>
+      <c r="C71" s="5">
+        <f t="shared" si="15"/>
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="D71" s="5">
+        <v>417</v>
+      </c>
+      <c r="E71" s="10">
+        <f t="shared" si="16"/>
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="F71" s="5">
+        <v>385</v>
+      </c>
+      <c r="G71" s="5">
+        <f t="shared" si="17"/>
+        <v>0.77</v>
+      </c>
+      <c r="H71" s="5">
+        <v>402</v>
+      </c>
+      <c r="I71" s="5">
+        <f t="shared" si="18"/>
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="J71" s="5">
+        <v>409</v>
+      </c>
+      <c r="K71" s="5">
+        <f t="shared" si="19"/>
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>550</v>
+      </c>
+      <c r="B72" s="5">
+        <v>497</v>
+      </c>
+      <c r="C72" s="5">
+        <f t="shared" si="15"/>
+        <v>0.90363636363636368</v>
+      </c>
+      <c r="D72" s="5">
+        <v>473</v>
+      </c>
+      <c r="E72" s="10">
+        <f t="shared" si="16"/>
+        <v>0.86</v>
+      </c>
+      <c r="F72" s="5">
+        <v>441</v>
+      </c>
+      <c r="G72" s="5">
+        <f t="shared" si="17"/>
+        <v>0.80181818181818176</v>
+      </c>
+      <c r="H72" s="5">
+        <v>451</v>
+      </c>
+      <c r="I72" s="5">
+        <f t="shared" si="18"/>
+        <v>0.82</v>
+      </c>
+      <c r="J72" s="5">
+        <v>455</v>
+      </c>
+      <c r="K72" s="5">
+        <f t="shared" si="19"/>
+        <v>0.82727272727272727</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>600</v>
+      </c>
+      <c r="B73" s="5">
+        <v>550</v>
+      </c>
+      <c r="C73" s="5">
+        <f t="shared" si="15"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D73" s="5">
+        <v>531</v>
+      </c>
+      <c r="E73" s="10">
+        <f t="shared" si="16"/>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="F73" s="5">
+        <v>491</v>
+      </c>
+      <c r="G73" s="5">
+        <f t="shared" si="17"/>
+        <v>0.81833333333333336</v>
+      </c>
+      <c r="H73" s="5">
+        <v>482</v>
+      </c>
+      <c r="I73" s="5">
+        <f t="shared" si="18"/>
+        <v>0.80333333333333334</v>
+      </c>
+      <c r="J73" s="5">
+        <v>507</v>
+      </c>
+      <c r="K73" s="5">
+        <f t="shared" si="19"/>
+        <v>0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>650</v>
+      </c>
+      <c r="B74" s="5">
+        <v>600</v>
+      </c>
+      <c r="C74" s="5">
+        <f t="shared" si="15"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="D74" s="5">
+        <v>580</v>
+      </c>
+      <c r="E74" s="10">
+        <f t="shared" si="16"/>
+        <v>0.89230769230769236</v>
+      </c>
+      <c r="F74" s="5">
+        <v>542</v>
+      </c>
+      <c r="G74" s="5">
+        <f t="shared" si="17"/>
+        <v>0.83384615384615379</v>
+      </c>
+      <c r="H74" s="5">
+        <v>523</v>
+      </c>
+      <c r="I74" s="5">
+        <f t="shared" si="18"/>
+        <v>0.80461538461538462</v>
+      </c>
+      <c r="J74" s="5">
+        <v>558</v>
+      </c>
+      <c r="K74" s="5">
+        <f t="shared" si="19"/>
+        <v>0.8584615384615385</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>700</v>
+      </c>
+      <c r="B75" s="5">
+        <v>648</v>
+      </c>
+      <c r="C75" s="5">
+        <f t="shared" si="15"/>
+        <v>0.92571428571428571</v>
+      </c>
+      <c r="D75" s="5">
+        <v>19</v>
+      </c>
+      <c r="E75" s="10">
+        <f t="shared" si="16"/>
+        <v>2.7142857142857142E-2</v>
+      </c>
+      <c r="F75" s="5">
+        <v>590</v>
+      </c>
+      <c r="G75" s="5">
+        <f t="shared" si="17"/>
+        <v>0.84285714285714286</v>
+      </c>
+      <c r="H75" s="5">
+        <v>564</v>
+      </c>
+      <c r="I75" s="5">
+        <f t="shared" si="18"/>
+        <v>0.80571428571428572</v>
+      </c>
+      <c r="J75" s="5">
+        <v>607</v>
+      </c>
+      <c r="K75" s="5">
+        <f t="shared" si="19"/>
+        <v>0.8671428571428571</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>750</v>
+      </c>
+      <c r="B76" s="5">
+        <v>700</v>
+      </c>
+      <c r="C76" s="5">
+        <f t="shared" si="15"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="D76" s="5">
+        <v>655</v>
+      </c>
+      <c r="E76" s="10">
+        <f t="shared" si="16"/>
+        <v>0.87333333333333329</v>
+      </c>
+      <c r="F76" s="5">
+        <v>635</v>
+      </c>
+      <c r="G76" s="5">
+        <f t="shared" si="17"/>
+        <v>0.84666666666666668</v>
+      </c>
+      <c r="H76" s="5">
+        <v>608</v>
+      </c>
+      <c r="I76" s="5">
+        <f t="shared" si="18"/>
+        <v>0.81066666666666665</v>
+      </c>
+      <c r="J76" s="5">
+        <v>664</v>
+      </c>
+      <c r="K76" s="5">
+        <f t="shared" si="19"/>
+        <v>0.88533333333333331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>800</v>
+      </c>
+      <c r="B77" s="5">
+        <v>738</v>
+      </c>
+      <c r="C77" s="5">
+        <f t="shared" si="15"/>
+        <v>0.92249999999999999</v>
+      </c>
+      <c r="D77" s="5">
+        <v>698</v>
+      </c>
+      <c r="E77" s="10">
+        <f t="shared" si="16"/>
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="F77" s="5">
+        <v>685</v>
+      </c>
+      <c r="G77" s="5">
+        <f t="shared" si="17"/>
+        <v>0.85624999999999996</v>
+      </c>
+      <c r="H77" s="5">
+        <v>643</v>
+      </c>
+      <c r="I77" s="5">
+        <f t="shared" si="18"/>
+        <v>0.80374999999999996</v>
+      </c>
+      <c r="J77" s="5">
+        <v>721</v>
+      </c>
+      <c r="K77" s="5">
+        <f t="shared" si="19"/>
+        <v>0.90125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>850</v>
+      </c>
+      <c r="B78" s="5">
+        <v>780</v>
+      </c>
+      <c r="C78" s="9">
+        <f t="shared" si="15"/>
+        <v>0.91764705882352937</v>
+      </c>
+      <c r="D78" s="5">
+        <v>739</v>
+      </c>
+      <c r="E78" s="5">
+        <f t="shared" si="16"/>
+        <v>0.86941176470588233</v>
+      </c>
+      <c r="F78" s="5">
+        <v>729</v>
+      </c>
+      <c r="G78" s="5">
+        <f t="shared" si="17"/>
+        <v>0.85764705882352943</v>
+      </c>
+      <c r="H78" s="5">
+        <v>691</v>
+      </c>
+      <c r="I78" s="5">
+        <f t="shared" si="18"/>
+        <v>0.81294117647058828</v>
+      </c>
+      <c r="J78" s="5">
+        <v>780</v>
+      </c>
+      <c r="K78" s="5">
+        <f t="shared" si="19"/>
+        <v>0.91764705882352937</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>900</v>
+      </c>
+      <c r="B79" s="5">
+        <v>822</v>
+      </c>
+      <c r="C79" s="9">
+        <f t="shared" si="15"/>
+        <v>0.91333333333333333</v>
+      </c>
+      <c r="D79" s="5">
+        <v>786</v>
+      </c>
+      <c r="E79" s="5">
+        <f t="shared" si="16"/>
+        <v>0.87333333333333329</v>
+      </c>
+      <c r="F79" s="5">
+        <v>772</v>
+      </c>
+      <c r="G79" s="5">
+        <f t="shared" si="17"/>
+        <v>0.85777777777777775</v>
+      </c>
+      <c r="H79" s="5">
+        <v>736</v>
+      </c>
+      <c r="I79" s="5">
+        <f t="shared" si="18"/>
+        <v>0.81777777777777783</v>
+      </c>
+      <c r="J79" s="5">
+        <v>836</v>
+      </c>
+      <c r="K79" s="5">
+        <f t="shared" si="19"/>
+        <v>0.92888888888888888</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="24">
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:S61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>18732</v>
+      </c>
+      <c r="B1">
+        <v>699338</v>
+      </c>
+      <c r="C1">
+        <v>9.5994999999999997E-2</v>
+      </c>
+      <c r="D1">
+        <v>44.127543000000003</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1">
+        <v>22019</v>
+      </c>
+      <c r="M1">
+        <v>700569</v>
+      </c>
+      <c r="N1">
+        <v>0.37938300000000003</v>
+      </c>
+      <c r="O1">
+        <v>48.616114000000003</v>
+      </c>
+      <c r="P1">
+        <v>46.766269999999999</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>18732</v>
+      </c>
+      <c r="B2">
+        <v>699339</v>
+      </c>
+      <c r="C2">
+        <v>0.24779799999999999</v>
+      </c>
+      <c r="D2">
+        <v>51.395470000000003</v>
+      </c>
+      <c r="E2">
+        <v>44.127543000000003</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>22019</v>
+      </c>
+      <c r="M2">
+        <v>700570</v>
+      </c>
+      <c r="N2">
+        <v>0.40012199999999998</v>
+      </c>
+      <c r="O2">
+        <v>47.433926</v>
+      </c>
+      <c r="P2">
+        <v>48.616114000000003</v>
+      </c>
+      <c r="Q2">
+        <v>46.766269999999999</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>18732</v>
+      </c>
+      <c r="B3">
+        <v>699340</v>
+      </c>
+      <c r="C3">
+        <v>0.12074</v>
+      </c>
+      <c r="D3">
+        <v>51.395470000000003</v>
+      </c>
+      <c r="E3">
+        <v>44.127543000000003</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>22019</v>
+      </c>
+      <c r="M3">
+        <v>701799</v>
+      </c>
+      <c r="N3">
+        <v>0.84673699999999996</v>
+      </c>
+      <c r="O3">
+        <v>48.616114000000003</v>
+      </c>
+      <c r="P3">
+        <v>46.766269999999999</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>18732</v>
+      </c>
+      <c r="B4">
+        <v>700568</v>
+      </c>
+      <c r="C4">
+        <v>0.187475</v>
+      </c>
+      <c r="D4">
+        <v>44.127543000000003</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>22019</v>
+      </c>
+      <c r="M4">
+        <v>701800</v>
+      </c>
+      <c r="N4">
+        <v>2.2911389999999998</v>
+      </c>
+      <c r="O4">
+        <v>44.450856000000002</v>
+      </c>
+      <c r="P4">
+        <v>47.433926</v>
+      </c>
+      <c r="Q4">
+        <v>48.616114000000003</v>
+      </c>
+      <c r="R4">
+        <v>46.766269999999999</v>
+      </c>
+      <c r="S4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>18732</v>
+      </c>
+      <c r="B5">
+        <v>700569</v>
+      </c>
+      <c r="C5">
+        <v>2.080114</v>
+      </c>
+      <c r="D5">
+        <v>50.508949999999999</v>
+      </c>
+      <c r="E5">
+        <v>51.395470000000003</v>
+      </c>
+      <c r="F5">
+        <v>44.127543000000003</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>22019</v>
+      </c>
+      <c r="M5">
+        <v>701801</v>
+      </c>
+      <c r="N5">
+        <v>0.85571399999999997</v>
+      </c>
+      <c r="O5">
+        <v>44.480716999999999</v>
+      </c>
+      <c r="P5">
+        <v>44.450856000000002</v>
+      </c>
+      <c r="Q5">
+        <v>47.433926</v>
+      </c>
+      <c r="R5">
+        <v>48.616114000000003</v>
+      </c>
+      <c r="S5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>18732</v>
+      </c>
+      <c r="B6">
+        <v>700570</v>
+      </c>
+      <c r="C6">
+        <v>1.117597</v>
+      </c>
+      <c r="D6">
+        <v>48.737630000000003</v>
+      </c>
+      <c r="E6">
+        <v>50.508949999999999</v>
+      </c>
+      <c r="F6">
+        <v>51.395470000000003</v>
+      </c>
+      <c r="G6">
+        <v>44.127543000000003</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>22019</v>
+      </c>
+      <c r="M6">
+        <v>703030</v>
+      </c>
+      <c r="N6">
+        <v>1.940426</v>
+      </c>
+      <c r="O6">
+        <v>44.450856000000002</v>
+      </c>
+      <c r="P6">
+        <v>47.433926</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>18732</v>
+      </c>
+      <c r="B7">
+        <v>701799</v>
+      </c>
+      <c r="C7">
+        <v>1.6862490000000001</v>
+      </c>
+      <c r="D7">
+        <v>50.508949999999999</v>
+      </c>
+      <c r="E7">
+        <v>51.395470000000003</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7">
+        <v>22019</v>
+      </c>
+      <c r="M7">
+        <v>703031</v>
+      </c>
+      <c r="N7">
+        <v>3.1875580000000001</v>
+      </c>
+      <c r="O7">
+        <v>46.660282000000002</v>
+      </c>
+      <c r="P7">
+        <v>44.480716999999999</v>
+      </c>
+      <c r="Q7">
+        <v>44.450856000000002</v>
+      </c>
+      <c r="R7">
+        <v>47.433926</v>
+      </c>
+      <c r="S7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>18732</v>
+      </c>
+      <c r="B8">
+        <v>701800</v>
+      </c>
+      <c r="C8">
+        <v>3.0881370000000001</v>
+      </c>
+      <c r="D8">
+        <v>53.854308000000003</v>
+      </c>
+      <c r="E8">
+        <v>48.737630000000003</v>
+      </c>
+      <c r="F8">
+        <v>50.508949999999999</v>
+      </c>
+      <c r="G8">
+        <v>51.395470000000003</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8">
+        <v>22019</v>
+      </c>
+      <c r="M8">
+        <v>703032</v>
+      </c>
+      <c r="N8">
+        <v>0.83149700000000004</v>
+      </c>
+      <c r="O8">
+        <v>52.883139</v>
+      </c>
+      <c r="P8">
+        <v>46.660282000000002</v>
+      </c>
+      <c r="Q8">
+        <v>44.480716999999999</v>
+      </c>
+      <c r="R8">
+        <v>44.450856000000002</v>
+      </c>
+      <c r="S8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>18732</v>
+      </c>
+      <c r="B9">
+        <v>701801</v>
+      </c>
+      <c r="C9">
+        <v>0.55765200000000004</v>
+      </c>
+      <c r="D9">
+        <v>55.113951999999998</v>
+      </c>
+      <c r="E9">
+        <v>53.854308000000003</v>
+      </c>
+      <c r="F9">
+        <v>48.737630000000003</v>
+      </c>
+      <c r="G9">
+        <v>50.508949999999999</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <v>22019</v>
+      </c>
+      <c r="M9">
+        <v>704261</v>
+      </c>
+      <c r="N9">
+        <v>2.1708919999999998</v>
+      </c>
+      <c r="O9">
+        <v>46.660282000000002</v>
+      </c>
+      <c r="P9">
+        <v>44.480716999999999</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>18732</v>
+      </c>
+      <c r="B10">
+        <v>703030</v>
+      </c>
+      <c r="C10">
+        <v>1.680372</v>
+      </c>
+      <c r="D10">
+        <v>53.854308000000003</v>
+      </c>
+      <c r="E10">
+        <v>48.737630000000003</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10">
+        <v>22019</v>
+      </c>
+      <c r="M10">
+        <v>704262</v>
+      </c>
+      <c r="N10">
+        <v>2.725171</v>
+      </c>
+      <c r="O10">
+        <v>49.969740999999999</v>
+      </c>
+      <c r="P10">
+        <v>52.883139</v>
+      </c>
+      <c r="Q10">
+        <v>46.660282000000002</v>
+      </c>
+      <c r="R10">
+        <v>44.480716999999999</v>
+      </c>
+      <c r="S10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>18732</v>
+      </c>
+      <c r="B11">
+        <v>703031</v>
+      </c>
+      <c r="C11">
+        <v>2.3403800000000001</v>
+      </c>
+      <c r="D11">
+        <v>40.702612999999999</v>
+      </c>
+      <c r="E11">
+        <v>55.113951999999998</v>
+      </c>
+      <c r="F11">
+        <v>53.854308000000003</v>
+      </c>
+      <c r="G11">
+        <v>48.737630000000003</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11">
+        <v>22019</v>
+      </c>
+      <c r="M11">
+        <v>704263</v>
+      </c>
+      <c r="N11">
+        <v>0.55556399999999995</v>
+      </c>
+      <c r="O11">
+        <v>46.363928000000001</v>
+      </c>
+      <c r="P11">
+        <v>49.969740999999999</v>
+      </c>
+      <c r="Q11">
+        <v>52.883139</v>
+      </c>
+      <c r="R11">
+        <v>46.660282000000002</v>
+      </c>
+      <c r="S11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>18732</v>
+      </c>
+      <c r="B12">
+        <v>703032</v>
+      </c>
+      <c r="C12">
+        <v>0.61574499999999999</v>
+      </c>
+      <c r="D12">
+        <v>59.560276000000002</v>
+      </c>
+      <c r="E12">
+        <v>40.702612999999999</v>
+      </c>
+      <c r="F12">
+        <v>55.113951999999998</v>
+      </c>
+      <c r="G12">
+        <v>53.854308000000003</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12">
+        <v>22019</v>
+      </c>
+      <c r="M12">
+        <v>705492</v>
+      </c>
+      <c r="N12">
+        <v>1.672517</v>
+      </c>
+      <c r="O12">
+        <v>49.969740999999999</v>
+      </c>
+      <c r="P12">
+        <v>52.883139</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>18732</v>
+      </c>
+      <c r="B13">
+        <v>704260</v>
+      </c>
+      <c r="C13">
+        <v>0.18684999999999999</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13">
+        <v>22019</v>
+      </c>
+      <c r="M13">
+        <v>705493</v>
+      </c>
+      <c r="N13">
+        <v>6.2159800000000001</v>
+      </c>
+      <c r="O13">
+        <v>47.956310999999999</v>
+      </c>
+      <c r="P13">
+        <v>46.363928000000001</v>
+      </c>
+      <c r="Q13">
+        <v>49.969740999999999</v>
+      </c>
+      <c r="R13">
+        <v>52.883139</v>
+      </c>
+      <c r="S13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>18732</v>
+      </c>
+      <c r="B14">
+        <v>704261</v>
+      </c>
+      <c r="C14">
+        <v>2.98706</v>
+      </c>
+      <c r="D14">
+        <v>40.702612999999999</v>
+      </c>
+      <c r="E14">
+        <v>55.113951999999998</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14">
+        <v>22019</v>
+      </c>
+      <c r="M14">
+        <v>705494</v>
+      </c>
+      <c r="N14">
+        <v>3.148031</v>
+      </c>
+      <c r="O14">
+        <v>40.785820999999999</v>
+      </c>
+      <c r="P14">
+        <v>47.956310999999999</v>
+      </c>
+      <c r="Q14">
+        <v>46.363928000000001</v>
+      </c>
+      <c r="R14">
+        <v>49.969740999999999</v>
+      </c>
+      <c r="S14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>18732</v>
+      </c>
+      <c r="B15">
+        <v>704262</v>
+      </c>
+      <c r="C15">
+        <v>3.1345350000000001</v>
+      </c>
+      <c r="D15">
+        <v>46.236407999999997</v>
+      </c>
+      <c r="E15">
+        <v>59.560276000000002</v>
+      </c>
+      <c r="F15">
+        <v>40.702612999999999</v>
+      </c>
+      <c r="G15">
+        <v>55.113951999999998</v>
+      </c>
+      <c r="H15" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15">
+        <v>22019</v>
+      </c>
+      <c r="M15">
+        <v>706722</v>
+      </c>
+      <c r="N15">
+        <v>0.191216</v>
+      </c>
+      <c r="O15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>18732</v>
+      </c>
+      <c r="B16">
+        <v>704263</v>
+      </c>
+      <c r="C16">
+        <v>1.3875500000000001</v>
+      </c>
+      <c r="D16">
+        <v>42.126562</v>
+      </c>
+      <c r="E16">
+        <v>46.236407999999997</v>
+      </c>
+      <c r="F16">
+        <v>59.560276000000002</v>
+      </c>
+      <c r="G16">
+        <v>40.702612999999999</v>
+      </c>
+      <c r="H16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16">
+        <v>22019</v>
+      </c>
+      <c r="M16">
+        <v>706723</v>
+      </c>
+      <c r="N16">
+        <v>9.3172239999999995</v>
+      </c>
+      <c r="O16">
+        <v>47.956310999999999</v>
+      </c>
+      <c r="P16">
+        <v>46.363928000000001</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>18732</v>
+      </c>
+      <c r="B17">
+        <v>705491</v>
+      </c>
+      <c r="C17">
+        <v>0.38218999999999997</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17">
+        <v>22019</v>
+      </c>
+      <c r="M17">
+        <v>706724</v>
+      </c>
+      <c r="N17">
+        <v>5.3035069999999997</v>
+      </c>
+      <c r="O17">
+        <v>46.610301</v>
+      </c>
+      <c r="P17">
+        <v>40.785820999999999</v>
+      </c>
+      <c r="Q17">
+        <v>47.956310999999999</v>
+      </c>
+      <c r="R17">
+        <v>46.363928000000001</v>
+      </c>
+      <c r="S17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>18732</v>
+      </c>
+      <c r="B18">
+        <v>705492</v>
+      </c>
+      <c r="C18">
+        <v>8.2778299999999998</v>
+      </c>
+      <c r="D18">
+        <v>46.236407999999997</v>
+      </c>
+      <c r="E18">
+        <v>59.560276000000002</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18">
+        <v>22019</v>
+      </c>
+      <c r="M18">
+        <v>706725</v>
+      </c>
+      <c r="N18">
+        <v>0.56927799999999995</v>
+      </c>
+      <c r="O18">
+        <v>47.156562999999998</v>
+      </c>
+      <c r="P18">
+        <v>46.610301</v>
+      </c>
+      <c r="Q18">
+        <v>40.785820999999999</v>
+      </c>
+      <c r="R18">
+        <v>47.956310999999999</v>
+      </c>
+      <c r="S18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18732</v>
+      </c>
+      <c r="B19">
+        <v>705493</v>
+      </c>
+      <c r="C19">
+        <v>3.8112780000000002</v>
+      </c>
+      <c r="D19">
+        <v>47.496327999999998</v>
+      </c>
+      <c r="E19">
+        <v>42.126562</v>
+      </c>
+      <c r="F19">
+        <v>46.236407999999997</v>
+      </c>
+      <c r="G19">
+        <v>59.560276000000002</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19">
+        <v>22019</v>
+      </c>
+      <c r="M19">
+        <v>707953</v>
+      </c>
+      <c r="N19">
+        <v>0.19933600000000001</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>18732</v>
+      </c>
+      <c r="B20">
+        <v>705494</v>
+      </c>
+      <c r="C20">
+        <v>0.287221</v>
+      </c>
+      <c r="D20">
+        <v>47.496327999999998</v>
+      </c>
+      <c r="E20">
+        <v>42.126562</v>
+      </c>
+      <c r="F20">
+        <v>46.236407999999997</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20">
+        <v>22019</v>
+      </c>
+      <c r="M20">
+        <v>707954</v>
+      </c>
+      <c r="N20">
+        <v>3.1882980000000001</v>
+      </c>
+      <c r="O20">
+        <v>46.610301</v>
+      </c>
+      <c r="P20">
+        <v>40.785820999999999</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>18732</v>
+      </c>
+      <c r="B21">
+        <v>706722</v>
+      </c>
+      <c r="C21">
+        <v>0.40532400000000002</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21">
+        <v>22019</v>
+      </c>
+      <c r="M21">
+        <v>707955</v>
+      </c>
+      <c r="N21">
+        <v>2.0099070000000001</v>
+      </c>
+      <c r="O21">
+        <v>47.675426999999999</v>
+      </c>
+      <c r="P21">
+        <v>47.156562999999998</v>
+      </c>
+      <c r="Q21">
+        <v>46.610301</v>
+      </c>
+      <c r="R21">
+        <v>40.785820999999999</v>
+      </c>
+      <c r="S21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>18732</v>
+      </c>
+      <c r="B22">
+        <v>706723</v>
+      </c>
+      <c r="C22">
+        <v>2.8003670000000001</v>
+      </c>
+      <c r="D22">
+        <v>47.496327999999998</v>
+      </c>
+      <c r="E22">
+        <v>42.126562</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22">
+        <v>22019</v>
+      </c>
+      <c r="M22">
+        <v>707956</v>
+      </c>
+      <c r="N22">
+        <v>0.318411</v>
+      </c>
+      <c r="O22">
+        <v>47.675426999999999</v>
+      </c>
+      <c r="P22">
+        <v>47.156562999999998</v>
+      </c>
+      <c r="Q22">
+        <v>46.610301</v>
+      </c>
+      <c r="R22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>18732</v>
+      </c>
+      <c r="B23">
+        <v>706724</v>
+      </c>
+      <c r="C23">
+        <v>1.1706449999999999</v>
+      </c>
+      <c r="D23">
+        <v>54.462322</v>
+      </c>
+      <c r="E23">
+        <v>47.496327999999998</v>
+      </c>
+      <c r="F23">
+        <v>42.126562</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23">
+        <v>22019</v>
+      </c>
+      <c r="M23">
+        <v>709184</v>
+      </c>
+      <c r="N23">
+        <v>0.36157299999999998</v>
+      </c>
+      <c r="O23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>18732</v>
+      </c>
+      <c r="B24">
+        <v>706725</v>
+      </c>
+      <c r="C24">
+        <v>0.28538400000000003</v>
+      </c>
+      <c r="D24">
+        <v>54.462322</v>
+      </c>
+      <c r="E24">
+        <v>47.496327999999998</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24">
+        <v>22019</v>
+      </c>
+      <c r="M24">
+        <v>709185</v>
+      </c>
+      <c r="N24">
+        <v>2.7388729999999999</v>
+      </c>
+      <c r="O24">
+        <v>47.675426999999999</v>
+      </c>
+      <c r="P24">
+        <v>47.156562999999998</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>18732</v>
+      </c>
+      <c r="B25">
+        <v>707953</v>
+      </c>
+      <c r="C25">
+        <v>0.21566299999999999</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25">
+        <v>22019</v>
+      </c>
+      <c r="M25">
+        <v>709186</v>
+      </c>
+      <c r="N25">
+        <v>1.2602850000000001</v>
+      </c>
+      <c r="O25">
+        <v>46.460917999999999</v>
+      </c>
+      <c r="P25">
+        <v>47.675426999999999</v>
+      </c>
+      <c r="Q25">
+        <v>47.156562999999998</v>
+      </c>
+      <c r="R25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>18732</v>
+      </c>
+      <c r="B26">
+        <v>707954</v>
+      </c>
+      <c r="C26">
+        <v>2.5529480000000002</v>
+      </c>
+      <c r="D26">
+        <v>50.954107</v>
+      </c>
+      <c r="E26">
+        <v>54.462322</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26">
+        <v>22019</v>
+      </c>
+      <c r="M26">
+        <v>709187</v>
+      </c>
+      <c r="N26">
+        <v>0.28864099999999998</v>
+      </c>
+      <c r="O26">
+        <v>46.460917999999999</v>
+      </c>
+      <c r="P26">
+        <v>47.675426999999999</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>18732</v>
+      </c>
+      <c r="B27">
+        <v>707955</v>
+      </c>
+      <c r="C27">
+        <v>1.340573</v>
+      </c>
+      <c r="D27">
+        <v>52.296945999999998</v>
+      </c>
+      <c r="E27">
+        <v>50.954107</v>
+      </c>
+      <c r="F27">
+        <v>54.462322</v>
+      </c>
+      <c r="G27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27">
+        <v>22019</v>
+      </c>
+      <c r="M27">
+        <v>710415</v>
+      </c>
+      <c r="N27">
+        <v>0.21828700000000001</v>
+      </c>
+      <c r="O27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>18732</v>
+      </c>
+      <c r="B28">
+        <v>707956</v>
+      </c>
+      <c r="C28">
+        <v>0.23311599999999999</v>
+      </c>
+      <c r="D28">
+        <v>52.296945999999998</v>
+      </c>
+      <c r="E28">
+        <v>50.954107</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28">
+        <v>22019</v>
+      </c>
+      <c r="M28">
+        <v>710416</v>
+      </c>
+      <c r="N28">
+        <v>2.4000919999999999</v>
+      </c>
+      <c r="O28">
+        <v>46.460917999999999</v>
+      </c>
+      <c r="P28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>18732</v>
+      </c>
+      <c r="B29">
+        <v>709184</v>
+      </c>
+      <c r="C29">
+        <v>0.60535000000000005</v>
+      </c>
+      <c r="D29">
+        <v>50.954107</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29">
+        <v>22019</v>
+      </c>
+      <c r="M29">
+        <v>710417</v>
+      </c>
+      <c r="N29">
+        <v>1.751417</v>
+      </c>
+      <c r="O29">
+        <v>45.571510000000004</v>
+      </c>
+      <c r="P29">
+        <v>46.460917999999999</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>18732</v>
+      </c>
+      <c r="B30">
+        <v>709185</v>
+      </c>
+      <c r="C30">
+        <v>3.4130929999999999</v>
+      </c>
+      <c r="D30">
+        <v>49.398705</v>
+      </c>
+      <c r="E30">
+        <v>52.296945999999998</v>
+      </c>
+      <c r="F30">
+        <v>50.954107</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30">
+        <v>22019</v>
+      </c>
+      <c r="M30">
+        <v>710418</v>
+      </c>
+      <c r="N30">
+        <v>0.75990500000000005</v>
+      </c>
+      <c r="O30">
+        <v>45.571510000000004</v>
+      </c>
+      <c r="P30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>18732</v>
+      </c>
+      <c r="B31">
+        <v>709186</v>
+      </c>
+      <c r="C31">
+        <v>1.1847430000000001</v>
+      </c>
+      <c r="D31">
+        <v>42.211292</v>
+      </c>
+      <c r="E31">
+        <v>49.398705</v>
+      </c>
+      <c r="F31">
+        <v>52.296945999999998</v>
+      </c>
+      <c r="G31">
+        <v>50.954107</v>
+      </c>
+      <c r="H31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31">
+        <v>22019</v>
+      </c>
+      <c r="M31">
+        <v>711646</v>
+      </c>
+      <c r="N31">
+        <v>0.35590699999999997</v>
+      </c>
+      <c r="O31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>18732</v>
+      </c>
+      <c r="B32">
+        <v>710415</v>
+      </c>
+      <c r="C32">
+        <v>1.42771</v>
+      </c>
+      <c r="D32">
+        <v>49.398705</v>
+      </c>
+      <c r="E32">
+        <v>52.296945999999998</v>
+      </c>
+      <c r="F32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32">
+        <v>22019</v>
+      </c>
+      <c r="M32">
+        <v>711647</v>
+      </c>
+      <c r="N32">
+        <v>4.1779070000000003</v>
+      </c>
+      <c r="O32">
+        <v>45.571510000000004</v>
+      </c>
+      <c r="P32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>18732</v>
+      </c>
+      <c r="B33">
+        <v>710416</v>
+      </c>
+      <c r="C33">
+        <v>3.0731549999999999</v>
+      </c>
+      <c r="D33">
+        <v>99.865807000000004</v>
+      </c>
+      <c r="E33">
+        <v>49.241137000000002</v>
+      </c>
+      <c r="F33">
+        <v>42.211292</v>
+      </c>
+      <c r="G33">
+        <v>49.398705</v>
+      </c>
+      <c r="H33">
+        <v>52.296945999999998</v>
+      </c>
+      <c r="I33" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33">
+        <v>22019</v>
+      </c>
+      <c r="M33">
+        <v>711648</v>
+      </c>
+      <c r="N33">
+        <v>2.5394079999999999</v>
+      </c>
+      <c r="O33">
+        <v>47.042493</v>
+      </c>
+      <c r="P33">
+        <v>45.571510000000004</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>18732</v>
+      </c>
+      <c r="B34">
+        <v>710417</v>
+      </c>
+      <c r="C34">
+        <v>0.85300399999999998</v>
+      </c>
+      <c r="D34">
+        <v>41.443818999999998</v>
+      </c>
+      <c r="E34">
+        <v>99.865807000000004</v>
+      </c>
+      <c r="F34">
+        <v>116.565051</v>
+      </c>
+      <c r="G34">
+        <v>49.241137000000002</v>
+      </c>
+      <c r="H34">
+        <v>42.211292</v>
+      </c>
+      <c r="I34">
+        <v>49.398705</v>
+      </c>
+      <c r="J34" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34">
+        <v>22019</v>
+      </c>
+      <c r="M34">
+        <v>711649</v>
+      </c>
+      <c r="N34">
+        <v>0.21406600000000001</v>
+      </c>
+      <c r="O34">
+        <v>47.042493</v>
+      </c>
+      <c r="P34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>18732</v>
+      </c>
+      <c r="B35">
+        <v>711646</v>
+      </c>
+      <c r="C35">
+        <v>2.1007910000000001</v>
+      </c>
+      <c r="D35">
+        <v>147.25400999999999</v>
+      </c>
+      <c r="E35">
+        <v>99.865807000000004</v>
+      </c>
+      <c r="F35">
+        <v>49.241137000000002</v>
+      </c>
+      <c r="G35">
+        <v>42.211292</v>
+      </c>
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="L35">
+        <v>22019</v>
+      </c>
+      <c r="M35">
+        <v>712877</v>
+      </c>
+      <c r="N35">
+        <v>0.61133599999999999</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>18732</v>
+      </c>
+      <c r="B36">
+        <v>711647</v>
+      </c>
+      <c r="C36">
+        <v>4.1308350000000003</v>
+      </c>
+      <c r="D36">
+        <v>147.25400999999999</v>
+      </c>
+      <c r="E36">
+        <v>109.212672</v>
+      </c>
+      <c r="F36">
+        <v>41.443818999999998</v>
+      </c>
+      <c r="G36">
+        <v>99.865807000000004</v>
+      </c>
+      <c r="H36">
+        <v>116.565051</v>
+      </c>
+      <c r="I36">
+        <v>49.241137000000002</v>
+      </c>
+      <c r="J36">
+        <v>42.211292</v>
+      </c>
+      <c r="K36" t="s">
+        <v>35</v>
+      </c>
+      <c r="L36">
+        <v>22019</v>
+      </c>
+      <c r="M36">
+        <v>712878</v>
+      </c>
+      <c r="N36">
+        <v>2.877227</v>
+      </c>
+      <c r="O36">
+        <v>45.364936</v>
+      </c>
+      <c r="P36">
+        <v>47.042493</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>18732</v>
+      </c>
+      <c r="B37">
+        <v>711648</v>
+      </c>
+      <c r="C37">
+        <v>1.962242</v>
+      </c>
+      <c r="D37">
+        <v>147.25400999999999</v>
+      </c>
+      <c r="E37">
+        <v>109.212672</v>
+      </c>
+      <c r="F37">
+        <v>41.443818999999998</v>
+      </c>
+      <c r="G37">
+        <v>99.865807000000004</v>
+      </c>
+      <c r="H37">
+        <v>116.565051</v>
+      </c>
+      <c r="I37">
+        <v>49.241137000000002</v>
+      </c>
+      <c r="J37" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37">
+        <v>22019</v>
+      </c>
+      <c r="M37">
+        <v>712879</v>
+      </c>
+      <c r="N37">
+        <v>1.0856300000000001</v>
+      </c>
+      <c r="O37">
+        <v>47.095253</v>
+      </c>
+      <c r="P37">
+        <v>45.364936</v>
+      </c>
+      <c r="Q37">
+        <v>47.042493</v>
+      </c>
+      <c r="R37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>18732</v>
+      </c>
+      <c r="B38">
+        <v>712876</v>
+      </c>
+      <c r="C38">
+        <v>0.133876</v>
+      </c>
+      <c r="D38">
+        <v>-165.092928</v>
+      </c>
+      <c r="E38">
+        <v>128.67943</v>
+      </c>
+      <c r="F38">
+        <v>147.25400999999999</v>
+      </c>
+      <c r="G38">
+        <v>99.865807000000004</v>
+      </c>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+      <c r="L38">
+        <v>22019</v>
+      </c>
+      <c r="M38">
+        <v>712880</v>
+      </c>
+      <c r="N38">
+        <v>0.22534199999999999</v>
+      </c>
+      <c r="O38">
+        <v>47.095253</v>
+      </c>
+      <c r="P38">
+        <v>45.364936</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>18732</v>
+      </c>
+      <c r="B39">
+        <v>712877</v>
+      </c>
+      <c r="C39">
+        <v>6.545979</v>
+      </c>
+      <c r="D39">
+        <v>128.67943</v>
+      </c>
+      <c r="E39">
+        <v>147.25400999999999</v>
+      </c>
+      <c r="F39">
+        <v>109.212672</v>
+      </c>
+      <c r="G39">
+        <v>41.443818999999998</v>
+      </c>
+      <c r="H39">
+        <v>99.865807000000004</v>
+      </c>
+      <c r="I39">
+        <v>116.565051</v>
+      </c>
+      <c r="J39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L39">
+        <v>22019</v>
+      </c>
+      <c r="M39">
+        <v>714108</v>
+      </c>
+      <c r="N39">
+        <v>0.50583100000000003</v>
+      </c>
+      <c r="O39">
+        <v>45.364936</v>
+      </c>
+      <c r="P39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>18732</v>
+      </c>
+      <c r="B40">
+        <v>712878</v>
+      </c>
+      <c r="C40">
+        <v>6.1479590000000002</v>
+      </c>
+      <c r="D40">
+        <v>147.25400999999999</v>
+      </c>
+      <c r="E40">
+        <v>109.212672</v>
+      </c>
+      <c r="F40">
+        <v>41.443818999999998</v>
+      </c>
+      <c r="G40">
+        <v>99.865807000000004</v>
+      </c>
+      <c r="H40">
+        <v>116.565051</v>
+      </c>
+      <c r="I40" t="s">
+        <v>37</v>
+      </c>
+      <c r="L40">
+        <v>22019</v>
+      </c>
+      <c r="M40">
+        <v>714109</v>
+      </c>
+      <c r="N40">
+        <v>3.4788890000000001</v>
+      </c>
+      <c r="O40">
+        <v>44.668813999999998</v>
+      </c>
+      <c r="P40">
+        <v>47.095253</v>
+      </c>
+      <c r="Q40">
+        <v>45.364936</v>
+      </c>
+      <c r="R40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>18732</v>
+      </c>
+      <c r="B41">
+        <v>714105</v>
+      </c>
+      <c r="C41">
+        <v>0.21937899999999999</v>
+      </c>
+      <c r="D41">
+        <v>-165.092928</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41">
+        <v>22019</v>
+      </c>
+      <c r="M41">
+        <v>714110</v>
+      </c>
+      <c r="N41">
+        <v>1.3589359999999999</v>
+      </c>
+      <c r="O41">
+        <v>45.549143999999998</v>
+      </c>
+      <c r="P41">
+        <v>44.668813999999998</v>
+      </c>
+      <c r="Q41">
+        <v>47.095253</v>
+      </c>
+      <c r="R41">
+        <v>45.364936</v>
+      </c>
+      <c r="S41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>18732</v>
+      </c>
+      <c r="B42">
+        <v>714106</v>
+      </c>
+      <c r="C42">
+        <v>0.94203300000000001</v>
+      </c>
+      <c r="D42">
+        <v>-165.092928</v>
+      </c>
+      <c r="E42">
+        <v>128.67943</v>
+      </c>
+      <c r="F42" t="s">
+        <v>39</v>
+      </c>
+      <c r="L42">
+        <v>22019</v>
+      </c>
+      <c r="M42">
+        <v>714111</v>
+      </c>
+      <c r="N42">
+        <v>0.218052</v>
+      </c>
+      <c r="O42">
+        <v>45.549143999999998</v>
+      </c>
+      <c r="P42">
+        <v>44.668813999999998</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>18732</v>
+      </c>
+      <c r="B43">
+        <v>714107</v>
+      </c>
+      <c r="C43">
+        <v>2.588336</v>
+      </c>
+      <c r="D43">
+        <v>128.67943</v>
+      </c>
+      <c r="E43">
+        <v>147.25400999999999</v>
+      </c>
+      <c r="F43" t="s">
+        <v>40</v>
+      </c>
+      <c r="L43">
+        <v>22019</v>
+      </c>
+      <c r="M43">
+        <v>715339</v>
+      </c>
+      <c r="N43">
+        <v>0.90915100000000004</v>
+      </c>
+      <c r="O43">
+        <v>44.668813999999998</v>
+      </c>
+      <c r="P43">
+        <v>47.095253</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>18732</v>
+      </c>
+      <c r="B44">
+        <v>714108</v>
+      </c>
+      <c r="C44">
+        <v>1.660741</v>
+      </c>
+      <c r="D44">
+        <v>147.25400999999999</v>
+      </c>
+      <c r="E44" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44">
+        <v>22019</v>
+      </c>
+      <c r="M44">
+        <v>715340</v>
+      </c>
+      <c r="N44">
+        <v>3.6405370000000001</v>
+      </c>
+      <c r="O44">
+        <v>47.619548999999999</v>
+      </c>
+      <c r="P44">
+        <v>45.549143999999998</v>
+      </c>
+      <c r="Q44">
+        <v>44.668813999999998</v>
+      </c>
+      <c r="R44">
+        <v>47.095253</v>
+      </c>
+      <c r="S44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>18732</v>
+      </c>
+      <c r="B45">
+        <v>715335</v>
+      </c>
+      <c r="C45">
+        <v>0.93734499999999998</v>
+      </c>
+      <c r="D45">
+        <v>-165.092928</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45">
+        <v>22019</v>
+      </c>
+      <c r="M45">
+        <v>715341</v>
+      </c>
+      <c r="N45">
+        <v>1.3034589999999999</v>
+      </c>
+      <c r="O45">
+        <v>49.274765000000002</v>
+      </c>
+      <c r="P45">
+        <v>47.619548999999999</v>
+      </c>
+      <c r="Q45">
+        <v>45.549143999999998</v>
+      </c>
+      <c r="R45">
+        <v>44.668813999999998</v>
+      </c>
+      <c r="S45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>18732</v>
+      </c>
+      <c r="B46">
+        <v>715336</v>
+      </c>
+      <c r="C46">
+        <v>2.3060489999999998</v>
+      </c>
+      <c r="D46">
+        <v>-165.092928</v>
+      </c>
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+      <c r="L46">
+        <v>22019</v>
+      </c>
+      <c r="M46">
+        <v>715342</v>
+      </c>
+      <c r="N46">
+        <v>0.122197</v>
+      </c>
+      <c r="O46">
+        <v>49.274765000000002</v>
+      </c>
+      <c r="P46">
+        <v>47.619548999999999</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>18732</v>
+      </c>
+      <c r="B47">
+        <v>715337</v>
+      </c>
+      <c r="C47">
+        <v>0.49059199999999997</v>
+      </c>
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+      <c r="L47">
+        <v>22019</v>
+      </c>
+      <c r="M47">
+        <v>716570</v>
+      </c>
+      <c r="N47">
+        <v>1.139977</v>
+      </c>
+      <c r="O47">
+        <v>47.619548999999999</v>
+      </c>
+      <c r="P47">
+        <v>45.549143999999998</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>18732</v>
+      </c>
+      <c r="B48">
+        <v>727645</v>
+      </c>
+      <c r="C48">
+        <v>4.710108</v>
+      </c>
+      <c r="D48">
+        <v>78.896167000000005</v>
+      </c>
+      <c r="E48">
+        <v>52.258750999999997</v>
+      </c>
+      <c r="F48">
+        <v>171.63411400000001</v>
+      </c>
+      <c r="G48">
+        <v>111.16126</v>
+      </c>
+      <c r="H48" t="s">
+        <v>41</v>
+      </c>
+      <c r="L48">
+        <v>22019</v>
+      </c>
+      <c r="M48">
+        <v>716571</v>
+      </c>
+      <c r="N48">
+        <v>3.4190939999999999</v>
+      </c>
+      <c r="O48">
+        <v>54.409221000000002</v>
+      </c>
+      <c r="P48">
+        <v>49.274765000000002</v>
+      </c>
+      <c r="Q48">
+        <v>47.619548999999999</v>
+      </c>
+      <c r="R48">
+        <v>45.549143999999998</v>
+      </c>
+      <c r="S48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>18732</v>
+      </c>
+      <c r="B49">
+        <v>727646</v>
+      </c>
+      <c r="C49">
+        <v>4.5968359999999997</v>
+      </c>
+      <c r="D49">
+        <v>78.896167000000005</v>
+      </c>
+      <c r="E49">
+        <v>52.258750999999997</v>
+      </c>
+      <c r="F49">
+        <v>171.63411400000001</v>
+      </c>
+      <c r="G49">
+        <v>111.16126</v>
+      </c>
+      <c r="H49" t="s">
+        <v>41</v>
+      </c>
+      <c r="L49">
+        <v>22019</v>
+      </c>
+      <c r="M49">
+        <v>716572</v>
+      </c>
+      <c r="N49">
+        <v>0.85459200000000002</v>
+      </c>
+      <c r="O49">
+        <v>51.972769</v>
+      </c>
+      <c r="P49">
+        <v>54.409221000000002</v>
+      </c>
+      <c r="Q49">
+        <v>49.274765000000002</v>
+      </c>
+      <c r="R49">
+        <v>47.619548999999999</v>
+      </c>
+      <c r="S49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>18732</v>
+      </c>
+      <c r="B50">
+        <v>728875</v>
+      </c>
+      <c r="C50">
+        <v>14.207314999999999</v>
+      </c>
+      <c r="D50">
+        <v>78.896167000000005</v>
+      </c>
+      <c r="E50">
+        <v>52.258750999999997</v>
+      </c>
+      <c r="F50">
+        <v>171.63411400000001</v>
+      </c>
+      <c r="G50">
+        <v>111.16126</v>
+      </c>
+      <c r="H50" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50">
+        <v>22019</v>
+      </c>
+      <c r="M50">
+        <v>716573</v>
+      </c>
+      <c r="N50">
+        <v>0.114875</v>
+      </c>
+      <c r="O50">
+        <v>51.972769</v>
+      </c>
+      <c r="P50">
+        <v>54.409221000000002</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>18732</v>
+      </c>
+      <c r="B51">
+        <v>728876</v>
+      </c>
+      <c r="C51">
+        <v>11.881962</v>
+      </c>
+      <c r="D51">
+        <v>78.896167000000005</v>
+      </c>
+      <c r="E51">
+        <v>52.258750999999997</v>
+      </c>
+      <c r="F51">
+        <v>171.63411400000001</v>
+      </c>
+      <c r="G51">
+        <v>111.16126</v>
+      </c>
+      <c r="H51" t="s">
+        <v>41</v>
+      </c>
+      <c r="L51">
+        <v>22019</v>
+      </c>
+      <c r="M51">
+        <v>717801</v>
+      </c>
+      <c r="N51">
+        <v>0.76615</v>
+      </c>
+      <c r="O51">
+        <v>54.409221000000002</v>
+      </c>
+      <c r="P51">
+        <v>49.274765000000002</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>18732</v>
+      </c>
+      <c r="B52">
+        <v>730105</v>
+      </c>
+      <c r="C52">
+        <v>0.18235799999999999</v>
+      </c>
+      <c r="D52" t="s">
+        <v>42</v>
+      </c>
+      <c r="L52">
+        <v>22019</v>
+      </c>
+      <c r="M52">
+        <v>717802</v>
+      </c>
+      <c r="N52">
+        <v>2.6110350000000002</v>
+      </c>
+      <c r="O52">
+        <v>48.632950999999998</v>
+      </c>
+      <c r="P52">
+        <v>51.972769</v>
+      </c>
+      <c r="Q52">
+        <v>54.409221000000002</v>
+      </c>
+      <c r="R52">
+        <v>49.274765000000002</v>
+      </c>
+      <c r="S52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>18732</v>
+      </c>
+      <c r="B53">
+        <v>730106</v>
+      </c>
+      <c r="C53">
+        <v>0.42142099999999999</v>
+      </c>
+      <c r="D53" t="s">
+        <v>43</v>
+      </c>
+      <c r="L53">
+        <v>22019</v>
+      </c>
+      <c r="M53">
+        <v>717803</v>
+      </c>
+      <c r="N53">
+        <v>0.95527099999999998</v>
+      </c>
+      <c r="O53">
+        <v>-22.734369999999998</v>
+      </c>
+      <c r="P53">
+        <v>48.632950999999998</v>
+      </c>
+      <c r="Q53">
+        <v>51.972769</v>
+      </c>
+      <c r="R53">
+        <v>54.409221000000002</v>
+      </c>
+      <c r="S53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L54">
+        <v>22019</v>
+      </c>
+      <c r="M54">
+        <v>719032</v>
+      </c>
+      <c r="N54">
+        <v>1.8534079999999999</v>
+      </c>
+      <c r="O54">
+        <v>48.632950999999998</v>
+      </c>
+      <c r="P54">
+        <v>51.972769</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L55">
+        <v>22019</v>
+      </c>
+      <c r="M55">
+        <v>719033</v>
+      </c>
+      <c r="N55">
+        <v>4.0760009999999998</v>
+      </c>
+      <c r="O55">
+        <v>-22.734369999999998</v>
+      </c>
+      <c r="P55">
+        <v>48.632950999999998</v>
+      </c>
+      <c r="Q55">
+        <v>51.972769</v>
+      </c>
+      <c r="R55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L56">
+        <v>22019</v>
+      </c>
+      <c r="M56">
+        <v>719034</v>
+      </c>
+      <c r="N56">
+        <v>2.7531210000000002</v>
+      </c>
+      <c r="O56">
+        <v>-22.734369999999998</v>
+      </c>
+      <c r="P56">
+        <v>48.632950999999998</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L57">
+        <v>22019</v>
+      </c>
+      <c r="M57">
+        <v>719035</v>
+      </c>
+      <c r="N57">
+        <v>0.49910300000000002</v>
+      </c>
+      <c r="O57" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L58">
+        <v>22019</v>
+      </c>
+      <c r="M58">
+        <v>720262</v>
+      </c>
+      <c r="N58">
+        <v>0.18424699999999999</v>
+      </c>
+      <c r="O58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L59">
+        <v>22019</v>
+      </c>
+      <c r="M59">
+        <v>720263</v>
+      </c>
+      <c r="N59">
+        <v>4.8622110000000003</v>
+      </c>
+      <c r="O59">
+        <v>-22.734369999999998</v>
+      </c>
+      <c r="P59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L60">
+        <v>22019</v>
+      </c>
+      <c r="M60">
+        <v>720264</v>
+      </c>
+      <c r="N60">
+        <v>13.284444000000001</v>
+      </c>
+      <c r="O60">
+        <v>-22.734369999999998</v>
+      </c>
+      <c r="P60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="L61">
+        <v>22019</v>
+      </c>
+      <c r="M61">
+        <v>720265</v>
+      </c>
+      <c r="N61">
+        <v>0.90561400000000003</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>